--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H2">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I2">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J2">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>6.823774200179779</v>
+        <v>2.044875435241778</v>
       </c>
       <c r="R2">
-        <v>61.41396780161801</v>
+        <v>18.403878917176</v>
       </c>
       <c r="S2">
-        <v>0.0395419574804711</v>
+        <v>0.01422757894466793</v>
       </c>
       <c r="T2">
-        <v>0.0395419574804711</v>
+        <v>0.01422757894466793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H3">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I3">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J3">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>22.47775369156511</v>
+        <v>10.97804687864356</v>
       </c>
       <c r="R3">
-        <v>202.299783224086</v>
+        <v>98.802421907792</v>
       </c>
       <c r="S3">
-        <v>0.1302526072309007</v>
+        <v>0.07638168366265258</v>
       </c>
       <c r="T3">
-        <v>0.1302526072309006</v>
+        <v>0.07638168366265258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H4">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I4">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J4">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>11.29927136162089</v>
+        <v>5.824159197198222</v>
       </c>
       <c r="R4">
-        <v>101.693442254588</v>
+        <v>52.417432774784</v>
       </c>
       <c r="S4">
-        <v>0.06547627377965506</v>
+        <v>0.04052260755660845</v>
       </c>
       <c r="T4">
-        <v>0.06547627377965506</v>
+        <v>0.04052260755660846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H5">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I5">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J5">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>26.82494680971445</v>
+        <v>11.88288682925067</v>
       </c>
       <c r="R5">
-        <v>241.42452128743</v>
+        <v>106.945981463256</v>
       </c>
       <c r="S5">
-        <v>0.1554434357071314</v>
+        <v>0.08267726607695741</v>
       </c>
       <c r="T5">
-        <v>0.1554434357071314</v>
+        <v>0.08267726607695741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.996332</v>
       </c>
       <c r="I6">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J6">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>5.100834813033778</v>
+        <v>3.129761880991556</v>
       </c>
       <c r="R6">
-        <v>45.907513317304</v>
+        <v>28.167856928924</v>
       </c>
       <c r="S6">
-        <v>0.02955798175246984</v>
+        <v>0.02177586637914442</v>
       </c>
       <c r="T6">
-        <v>0.02955798175246984</v>
+        <v>0.02177586637914442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.996332</v>
       </c>
       <c r="I7">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J7">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>16.80233037982311</v>
@@ -883,10 +883,10 @@
         <v>151.220973418408</v>
       </c>
       <c r="S7">
-        <v>0.09736503787512329</v>
+        <v>0.1169051560859796</v>
       </c>
       <c r="T7">
-        <v>0.09736503787512328</v>
+        <v>0.1169051560859796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.996332</v>
       </c>
       <c r="I8">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J8">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>8.446310653384888</v>
+        <v>8.914103583068444</v>
       </c>
       <c r="R8">
-        <v>76.01679588046399</v>
+        <v>80.22693224761601</v>
       </c>
       <c r="S8">
-        <v>0.04894412489706887</v>
+        <v>0.06202143674050155</v>
       </c>
       <c r="T8">
-        <v>0.04894412489706887</v>
+        <v>0.06202143674050156</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.996332</v>
       </c>
       <c r="I9">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J9">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>20.05189775200445</v>
+        <v>18.18722333564933</v>
       </c>
       <c r="R9">
-        <v>180.46707976804</v>
+        <v>163.685010020844</v>
       </c>
       <c r="S9">
-        <v>0.1161954169426685</v>
+        <v>0.1265407913522433</v>
       </c>
       <c r="T9">
-        <v>0.1161954169426685</v>
+        <v>0.1265407913522433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H10">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I10">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J10">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>4.622284055541779</v>
+        <v>3.898408972707556</v>
       </c>
       <c r="R10">
-        <v>41.60055649987601</v>
+        <v>35.085680754368</v>
       </c>
       <c r="S10">
-        <v>0.02678490732915476</v>
+        <v>0.02712386312726212</v>
       </c>
       <c r="T10">
-        <v>0.02678490732915476</v>
+        <v>0.02712386312726212</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H11">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I11">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J11">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>15.22596724993911</v>
+        <v>20.92886232429511</v>
       </c>
       <c r="R11">
-        <v>137.033705249452</v>
+        <v>188.359760918656</v>
       </c>
       <c r="S11">
-        <v>0.08823043259260777</v>
+        <v>0.1456162247387886</v>
       </c>
       <c r="T11">
-        <v>0.08823043259260774</v>
+        <v>0.1456162247387886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H12">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I12">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J12">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>7.653893625712889</v>
+        <v>11.10334354921244</v>
       </c>
       <c r="R12">
-        <v>68.885042631416</v>
+        <v>99.930091942912</v>
       </c>
       <c r="S12">
-        <v>0.04435227887523217</v>
+        <v>0.07725345719041864</v>
       </c>
       <c r="T12">
-        <v>0.04435227887523215</v>
+        <v>0.07725345719041866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H13">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I13">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J13">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>18.17066630458445</v>
+        <v>22.65387506664533</v>
       </c>
       <c r="R13">
-        <v>163.53599674126</v>
+        <v>203.884875599808</v>
       </c>
       <c r="S13">
-        <v>0.1052941808052174</v>
+        <v>0.1576183029824661</v>
       </c>
       <c r="T13">
-        <v>0.1052941808052173</v>
+        <v>0.1576183029824661</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H14">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I14">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J14">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>0.9179774281924444</v>
+        <v>0.4909764239984445</v>
       </c>
       <c r="R14">
-        <v>8.261796853732001</v>
+        <v>4.418787815986001</v>
       </c>
       <c r="S14">
-        <v>0.005319435164290977</v>
+        <v>0.003416054451053981</v>
       </c>
       <c r="T14">
-        <v>0.005319435164290977</v>
+        <v>0.003416054451053981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H15">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I15">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J15">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>3.023850133373778</v>
+        <v>2.635838890756889</v>
       </c>
       <c r="R15">
-        <v>27.214651200364</v>
+        <v>23.722550016812</v>
       </c>
       <c r="S15">
-        <v>0.01752240767257988</v>
+        <v>0.01833931067749148</v>
       </c>
       <c r="T15">
-        <v>0.01752240767257988</v>
+        <v>0.01833931067749148</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H16">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I16">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J16">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>1.520049720390222</v>
+        <v>1.398385841091556</v>
       </c>
       <c r="R16">
-        <v>13.680447483512</v>
+        <v>12.585472569824</v>
       </c>
       <c r="S16">
-        <v>0.008808284044669679</v>
+        <v>0.009729514378406908</v>
       </c>
       <c r="T16">
-        <v>0.008808284044669679</v>
+        <v>0.009729514378406912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H17">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I17">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J17">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>3.608662151091111</v>
+        <v>2.853091773540667</v>
       </c>
       <c r="R17">
-        <v>32.47795935982</v>
+        <v>25.677825961866</v>
       </c>
       <c r="S17">
-        <v>0.02091123785075871</v>
+        <v>0.01985088565535678</v>
       </c>
       <c r="T17">
-        <v>0.0209112378507587</v>
+        <v>0.01985088565535678</v>
       </c>
     </row>
   </sheetData>
